--- a/customers.xlsx
+++ b/customers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17124" windowHeight="5868"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Chicago</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>sam@gmail.com</t>
+  </si>
+  <si>
+    <t>Sam</t>
   </si>
 </sst>
 </file>
@@ -391,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,11 +467,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
